--- a/data/raw/other_accounts.xlsx
+++ b/data/raw/other_accounts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloseduardogomeztorres/Desktop/BIA/TFG/data/processed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloseduardogomeztorres/Desktop/BIA/TFG/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A17355-4642-764B-B297-45F9C954B792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63A5517-33C5-8945-82A7-8B955613B496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27000" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Real Madrid</t>
   </si>
   <si>
-    <t>España</t>
-  </si>
-  <si>
     <t>ESG08266298</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>Liverpool</t>
   </si>
   <si>
-    <t>Inglaterra</t>
-  </si>
-  <si>
     <t>ESA80373764</t>
   </si>
   <si>
@@ -224,46 +218,52 @@
     <t>BvD_ID</t>
   </si>
   <si>
-    <t>AÑO</t>
-  </si>
-  <si>
     <t>INTANGIBLE</t>
   </si>
   <si>
-    <t>MATERIAL</t>
-  </si>
-  <si>
-    <t>ACTCORR</t>
-  </si>
-  <si>
-    <t>ACTFIJ</t>
-  </si>
-  <si>
-    <t>ACTTOT</t>
-  </si>
-  <si>
-    <t>PATNET</t>
-  </si>
-  <si>
-    <t>PASCP</t>
-  </si>
-  <si>
-    <t>PASLP</t>
-  </si>
-  <si>
-    <t>PATNETPAS</t>
-  </si>
-  <si>
-    <t>INGRESOS</t>
-  </si>
-  <si>
     <t>EBIT</t>
   </si>
   <si>
-    <t>PAIS</t>
-  </si>
-  <si>
-    <t>EQUIPO</t>
+    <t>TANGIBLE</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>FIXED_ASSETS</t>
+  </si>
+  <si>
+    <t>CURRENT_ASSETS</t>
+  </si>
+  <si>
+    <t>TOTAL_ASSETS</t>
+  </si>
+  <si>
+    <t>EQUITY</t>
+  </si>
+  <si>
+    <t>LT_LIABILITIES</t>
+  </si>
+  <si>
+    <t>ST_LIABILITIES</t>
+  </si>
+  <si>
+    <t>EQUITY_LIABILITIES</t>
+  </si>
+  <si>
+    <t>REVENUE</t>
+  </si>
+  <si>
+    <t>TEAM</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>England</t>
   </si>
 </sst>
 </file>
@@ -600,59 +600,61 @@
   <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
     <col min="12" max="12" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>67</v>
       </c>
       <c r="F1" t="s">
         <v>66</v>
       </c>
       <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>69</v>
-      </c>
-      <c r="I1" t="s">
-        <v>71</v>
       </c>
       <c r="J1" t="s">
         <v>70</v>
       </c>
       <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>74</v>
-      </c>
-      <c r="N1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -700,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -748,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -796,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -844,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -892,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -940,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -988,12 +990,12 @@
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>2018</v>
@@ -1033,15 +1035,15 @@
         <v>32.023000000000003</v>
       </c>
       <c r="N9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>2017</v>
@@ -1081,15 +1083,15 @@
         <v>30.992999999999999</v>
       </c>
       <c r="N10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O10" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>2016</v>
@@ -1129,15 +1131,15 @@
         <v>48.545999999999999</v>
       </c>
       <c r="N11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O11" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>2015</v>
@@ -1177,15 +1179,15 @@
         <v>26.640999999999998</v>
       </c>
       <c r="N12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O12" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>2017</v>
@@ -1225,15 +1227,15 @@
         <v>7.8881376000000003</v>
       </c>
       <c r="N13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O13" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>2016</v>
@@ -1273,15 +1275,15 @@
         <v>-75.518342899999993</v>
       </c>
       <c r="N14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O14" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>2015</v>
@@ -1321,15 +1323,15 @@
         <v>12.7739096</v>
       </c>
       <c r="N15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O15" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>2019</v>
@@ -1369,15 +1371,15 @@
         <v>61.564999999999998</v>
       </c>
       <c r="N16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O16" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>2018</v>
@@ -1417,15 +1419,15 @@
         <v>36.777000000000001</v>
       </c>
       <c r="N17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O17" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>2017</v>
@@ -1465,15 +1467,15 @@
         <v>27.745999999999999</v>
       </c>
       <c r="N18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O18" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -1513,15 +1515,15 @@
         <v>24.355</v>
       </c>
       <c r="N19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O19" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>2015</v>
@@ -1561,15 +1563,15 @@
         <v>40.058999999999997</v>
       </c>
       <c r="N20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O20" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>2015</v>
@@ -1609,15 +1611,15 @@
         <v>-17.597085059600001</v>
       </c>
       <c r="N21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O21" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>2020</v>
@@ -1657,15 +1659,15 @@
         <v>-65.884123799999998</v>
       </c>
       <c r="N22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O22" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>2019</v>
@@ -1705,15 +1707,15 @@
         <v>-18.0170487</v>
       </c>
       <c r="N23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O23" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B24">
         <v>2018</v>
@@ -1753,15 +1755,15 @@
         <v>-23.692426999999999</v>
       </c>
       <c r="N24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O24" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B25">
         <v>2017</v>
@@ -1801,15 +1803,15 @@
         <v>85.5739248</v>
       </c>
       <c r="N25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O25" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <v>2016</v>
@@ -1849,15 +1851,15 @@
         <v>24.0376136</v>
       </c>
       <c r="N26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O26" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>2015</v>
@@ -1897,15 +1899,15 @@
         <v>39.407566799999998</v>
       </c>
       <c r="N27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O27" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>2023</v>
@@ -1945,15 +1947,15 @@
         <v>-14.805999999999999</v>
       </c>
       <c r="N28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O28" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>2022</v>
@@ -1993,15 +1995,15 @@
         <v>-20.407</v>
       </c>
       <c r="N29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O29" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30">
         <v>2023</v>
@@ -2041,15 +2043,15 @@
         <v>7.1788129999999999</v>
       </c>
       <c r="N30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O30" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B31">
         <v>2023</v>
@@ -2089,15 +2091,15 @@
         <v>9.7210000000000001</v>
       </c>
       <c r="N31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O31" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B32">
         <v>2023</v>
@@ -2137,15 +2139,15 @@
         <v>0.45393067999999998</v>
       </c>
       <c r="N32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O32" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B33">
         <v>2022</v>
@@ -2185,15 +2187,15 @@
         <v>-9.0019095300000007</v>
       </c>
       <c r="N33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O33" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B34">
         <v>2023</v>
@@ -2233,15 +2235,15 @@
         <v>-16.955743340000001</v>
       </c>
       <c r="N34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O34" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>2015</v>
@@ -2281,15 +2283,15 @@
         <v>5.0463624999999999</v>
       </c>
       <c r="N35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O35" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B36">
         <v>2023</v>
@@ -2329,15 +2331,15 @@
         <v>-15.744298410000001</v>
       </c>
       <c r="N36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O36" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B37">
         <v>2023</v>
@@ -2377,15 +2379,15 @@
         <v>-2.5091800000000002</v>
       </c>
       <c r="N37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O37" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B38">
         <v>2020</v>
@@ -2425,15 +2427,15 @@
         <v>1.47797</v>
       </c>
       <c r="N38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O38" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B39">
         <v>2023</v>
@@ -2473,15 +2475,15 @@
         <v>-2.1120830000000002</v>
       </c>
       <c r="N39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O39" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B40">
         <v>2022</v>
@@ -2521,15 +2523,15 @@
         <v>4.0336119999999998</v>
       </c>
       <c r="N40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O40" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B41">
         <v>2023</v>
@@ -2569,15 +2571,15 @@
         <v>-4.175116</v>
       </c>
       <c r="N41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O41" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B42">
         <v>2022</v>
@@ -2617,15 +2619,15 @@
         <v>1.8627849999999999</v>
       </c>
       <c r="N42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O42" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B43">
         <v>2023</v>
@@ -2665,15 +2667,15 @@
         <v>-0.21603137</v>
       </c>
       <c r="N43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O43" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B44">
         <v>2022</v>
@@ -2713,15 +2715,15 @@
         <v>5.0723825299999996</v>
       </c>
       <c r="N44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O44" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B45">
         <v>2021</v>
@@ -2761,15 +2763,15 @@
         <v>9.2686419400000002</v>
       </c>
       <c r="N45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O45" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B46">
         <v>2023</v>
@@ -2809,15 +2811,15 @@
         <v>-11.819777</v>
       </c>
       <c r="N46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O46" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B47">
         <v>2023</v>
@@ -2857,15 +2859,15 @@
         <v>0.102293</v>
       </c>
       <c r="N47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O47" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B48">
         <v>2023</v>
@@ -2905,15 +2907,15 @@
         <v>22.963228650000001</v>
       </c>
       <c r="N48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O48" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B49">
         <v>2023</v>
@@ -2953,15 +2955,15 @@
         <v>0.50029252999999996</v>
       </c>
       <c r="N49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O49" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B50">
         <v>2023</v>
@@ -3001,15 +3003,15 @@
         <v>-2.6387809999999998</v>
       </c>
       <c r="N50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O50" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B51">
         <v>2023</v>
@@ -3049,15 +3051,15 @@
         <v>-7.35</v>
       </c>
       <c r="N51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O51" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B52">
         <v>2023</v>
@@ -3097,15 +3099,15 @@
         <v>0.12741321</v>
       </c>
       <c r="N52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O52" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B53">
         <v>2022</v>
@@ -3145,15 +3147,15 @@
         <v>-1.9703020200000001</v>
       </c>
       <c r="N53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O53" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B54">
         <v>2023</v>
@@ -3193,15 +3195,15 @@
         <v>-5.6756674619999998</v>
       </c>
       <c r="N54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O54" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B55">
         <v>2022</v>
@@ -3241,15 +3243,15 @@
         <v>-2.7378689719999998</v>
       </c>
       <c r="N55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O55" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B56">
         <v>2021</v>
@@ -3289,15 +3291,15 @@
         <v>5.4745445430000004</v>
       </c>
       <c r="N56" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O56" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B57">
         <v>2020</v>
@@ -3337,15 +3339,15 @@
         <v>-5.1339528504</v>
       </c>
       <c r="N57" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O57" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B58">
         <v>2019</v>
@@ -3385,15 +3387,15 @@
         <v>5.2050911577000001</v>
       </c>
       <c r="N58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O58" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B59">
         <v>2018</v>
@@ -3433,15 +3435,15 @@
         <v>33.142850233799997</v>
       </c>
       <c r="N59" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O59" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B60">
         <v>2017</v>
@@ -3481,15 +3483,15 @@
         <v>-23.719963016400001</v>
       </c>
       <c r="N60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O60" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B61">
         <v>2016</v>
@@ -3529,15 +3531,15 @@
         <v>-26.953185359100001</v>
       </c>
       <c r="N61" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O61" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B62">
         <v>2015</v>
@@ -3577,15 +3579,15 @@
         <v>-3.7753807683999998</v>
       </c>
       <c r="N62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O62" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B63">
         <v>2023</v>
@@ -3625,15 +3627,15 @@
         <v>0.15255352</v>
       </c>
       <c r="N63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O63" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B64">
         <v>2022</v>
@@ -3673,15 +3675,15 @@
         <v>-6.0513400000000002E-2</v>
       </c>
       <c r="N64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O64" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B65">
         <v>2023</v>
@@ -3721,15 +3723,15 @@
         <v>3.9377331500000001</v>
       </c>
       <c r="N65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O65" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B66">
         <v>2023</v>
@@ -3769,15 +3771,15 @@
         <v>-5.8645589999999999</v>
       </c>
       <c r="N66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O66" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B67">
         <v>2022</v>
@@ -3817,15 +3819,15 @@
         <v>-1.466955</v>
       </c>
       <c r="N67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O67" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B68">
         <v>2021</v>
@@ -3865,15 +3867,15 @@
         <v>0.91751899999999997</v>
       </c>
       <c r="N68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O68" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B69">
         <v>2020</v>
@@ -3913,15 +3915,15 @@
         <v>3.1245324999999999</v>
       </c>
       <c r="N69" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O69" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B70">
         <v>2019</v>
@@ -3961,15 +3963,15 @@
         <v>-3.7704089999999999</v>
       </c>
       <c r="N70" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O70" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B71">
         <v>2018</v>
@@ -4009,15 +4011,15 @@
         <v>9.4180898899999992</v>
       </c>
       <c r="N71" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O71" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B72">
         <v>2017</v>
@@ -4057,15 +4059,15 @@
         <v>23.129147830000001</v>
       </c>
       <c r="N72" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O72" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B73">
         <v>2016</v>
@@ -4105,10 +4107,10 @@
         <v>2.7455183500000002</v>
       </c>
       <c r="N73" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O73" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
